--- a/analysis/post_gemini_data/Participant110/Task3_med.xlsx
+++ b/analysis/post_gemini_data/Participant110/Task3_med.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,127 +422,123 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg 1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg 2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg 3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>cond body 1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cond body 2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>cond statement</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>cond statement 1</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>cond statement 2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>cond statement 3</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>external call 2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>external var 1</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>loop body</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>loop statement</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>method call 1</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>method call 2</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>method call 3</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>method dec</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>parameter</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>var name 1</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>var name 2</t>
         </is>
@@ -600,44 +584,50 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
-        <v>28</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>27</v>
       </c>
       <c r="P3" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
       <c r="T3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
@@ -651,44 +641,50 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
-        <v>47</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>12</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>290</v>
       </c>
       <c r="P4" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>277</v>
+        <v>188</v>
       </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
@@ -702,44 +698,50 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>233.61</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>20501.99</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>3295.06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>233.62</v>
+      </c>
       <c r="H5" t="n">
-        <v>6306.91</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>867.5700000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>233.62</v>
+      </c>
       <c r="J5" t="n">
-        <v>2744.51</v>
+        <v>533.89</v>
       </c>
       <c r="K5" t="n">
-        <v>1610.08</v>
+        <v>533.89</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>2886.46</v>
+        <v>333.68</v>
       </c>
       <c r="O5" t="n">
         <v>74404.08</v>
       </c>
       <c r="P5" t="n">
-        <v>9940.799999999999</v>
+        <v>1334.75</v>
       </c>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>233.62</v>
+      </c>
+      <c r="S5" t="n">
+        <v>233.62</v>
+      </c>
       <c r="T5" t="n">
-        <v>4671.82</v>
+        <v>867.5700000000001</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>113221.2</v>
+        <v>60673.49</v>
       </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
@@ -753,44 +755,50 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.11</v>
       </c>
-      <c r="F6" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>0.41</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.11</v>
+      </c>
       <c r="J6" t="n">
-        <v>1.33</v>
+        <v>0.25</v>
       </c>
       <c r="K6" t="n">
-        <v>0.78</v>
+        <v>0.25</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>1.39</v>
+        <v>0.16</v>
       </c>
       <c r="O6" t="n">
         <v>35.27</v>
       </c>
       <c r="P6" t="n">
-        <v>4.8</v>
+        <v>0.63</v>
       </c>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.11</v>
+      </c>
       <c r="T6" t="n">
-        <v>2.26</v>
+        <v>0.41</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>54.63</v>
+        <v>28.72</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
@@ -804,44 +812,50 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>233.61</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>436.21</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>329.51</v>
+      </c>
+      <c r="G7" t="n">
+        <v>233.62</v>
+      </c>
       <c r="H7" t="n">
-        <v>525.58</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>433.78</v>
+      </c>
+      <c r="I7" t="n">
+        <v>233.62</v>
+      </c>
       <c r="J7" t="n">
-        <v>392.07</v>
+        <v>533.89</v>
       </c>
       <c r="K7" t="n">
-        <v>322.02</v>
+        <v>533.89</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>721.62</v>
+        <v>333.68</v>
       </c>
       <c r="O7" t="n">
         <v>256.57</v>
       </c>
       <c r="P7" t="n">
-        <v>414.2</v>
+        <v>333.69</v>
       </c>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>233.62</v>
+      </c>
+      <c r="S7" t="n">
+        <v>233.62</v>
+      </c>
       <c r="T7" t="n">
-        <v>667.4</v>
+        <v>433.78</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>408.74</v>
+        <v>322.73</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
@@ -855,44 +869,50 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>233.61</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>624.66</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>175.19</v>
+      </c>
+      <c r="G8" t="n">
+        <v>233.62</v>
+      </c>
       <c r="H8" t="n">
-        <v>734.0700000000001</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>533.89</v>
+      </c>
+      <c r="I8" t="n">
+        <v>233.62</v>
+      </c>
       <c r="J8" t="n">
-        <v>216.71</v>
+        <v>533.89</v>
       </c>
       <c r="K8" t="n">
-        <v>517.24</v>
+        <v>533.89</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>300.3</v>
+        <v>333.68</v>
       </c>
       <c r="O8" t="n">
         <v>216.87</v>
       </c>
       <c r="P8" t="n">
-        <v>368.4</v>
+        <v>233.56</v>
       </c>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>233.62</v>
+      </c>
+      <c r="S8" t="n">
+        <v>233.62</v>
+      </c>
       <c r="T8" t="n">
-        <v>734.0700000000001</v>
+        <v>533.89</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>37.39</v>
+        <v>317</v>
       </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
